--- a/raw_data/20200818_saline/20200818_Sensor3_Test_16.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_16.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DF3AF-0618-4BA9-9D28-D63A7A3BB6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>14058.831648</v>
+        <v>14058.831647999999</v>
       </c>
       <c r="B2" s="1">
-        <v>3.905231</v>
+        <v>3.9052310000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1142.490000</v>
+        <v>1142.49</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.968000</v>
+        <v>-258.96800000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>14069.226951</v>
+        <v>14069.226951000001</v>
       </c>
       <c r="G2" s="1">
-        <v>3.908119</v>
+        <v>3.9081190000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.590000</v>
+        <v>1163.5899999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.719000</v>
+        <v>-217.71899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>14079.335947</v>
@@ -511,28 +927,28 @@
         <v>3.910927</v>
       </c>
       <c r="M2" s="1">
-        <v>1191.310000</v>
+        <v>1191.31</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.562000</v>
+        <v>-150.56200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>14089.836716</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.913844</v>
+        <v>3.9138440000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.514000</v>
+        <v>-128.51400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>14100.426797</v>
@@ -541,632 +957,632 @@
         <v>3.916785</v>
       </c>
       <c r="W2" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.474000</v>
+        <v>-107.474</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>14111.192960</v>
+        <v>14111.19296</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.919776</v>
+        <v>3.9197760000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.571100</v>
+        <v>-90.571100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>14121.726497</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.922702</v>
+        <v>3.9227020000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1217.930000</v>
+        <v>1217.93</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.840600</v>
+        <v>-85.840599999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>14132.015044</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.925560</v>
+        <v>3.9255599999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.117200</v>
+        <v>-89.117199999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>14142.261900</v>
+        <v>14142.2619</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.928406</v>
+        <v>3.9284059999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1232.810000</v>
+        <v>1232.81</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.995000</v>
+        <v>-100.995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>14153.290904</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.931470</v>
+        <v>3.93147</v>
       </c>
       <c r="AV2" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.206000</v>
+        <v>-120.206</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>14164.382937</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.934551</v>
+        <v>3.9345509999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1251.030000</v>
+        <v>1251.03</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.611000</v>
+        <v>-137.61099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>14175.391643</v>
+        <v>14175.391643000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.937609</v>
+        <v>3.9376090000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1290.770000</v>
+        <v>1290.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.254000</v>
+        <v>-219.25399999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>14186.150365</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.940597</v>
+        <v>3.9405969999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.546000</v>
+        <v>-355.54599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>14196.904622</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.943585</v>
+        <v>3.9435850000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1472.300000</v>
+        <v>1472.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.081000</v>
+        <v>-578.08100000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>14207.644991</v>
+        <v>14207.644990999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.946568</v>
+        <v>3.9465680000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1602.330000</v>
+        <v>1602.33</v>
       </c>
       <c r="BV2" s="1">
-        <v>-830.285000</v>
+        <v>-830.28499999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>14218.302530</v>
+        <v>14218.302530000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.949528</v>
+        <v>3.9495279999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1753.660000</v>
+        <v>1753.66</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1105.560000</v>
+        <v>-1105.56</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>14229.539892</v>
+        <v>14229.539892000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.952650</v>
+        <v>3.9526500000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2171.990000</v>
+        <v>2171.9899999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1776.370000</v>
+        <v>-1776.37</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>14059.193876</v>
+        <v>14059.193875999999</v>
       </c>
       <c r="B3" s="1">
         <v>3.905332</v>
       </c>
       <c r="C3" s="1">
-        <v>1142.650000</v>
+        <v>1142.6500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.827000</v>
+        <v>-258.827</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>14069.594982</v>
+        <v>14069.594982000001</v>
       </c>
       <c r="G3" s="1">
-        <v>3.908221</v>
+        <v>3.9082210000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1163.720000</v>
+        <v>1163.72</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.448000</v>
+        <v>-217.44800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>14079.709437</v>
       </c>
       <c r="L3" s="1">
-        <v>3.911030</v>
+        <v>3.9110299999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.290000</v>
+        <v>1191.29</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.907000</v>
+        <v>-150.90700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>14090.563852</v>
+        <v>14090.563851999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.914046</v>
+        <v>3.9140459999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.581000</v>
+        <v>-128.58099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>14101.143021</v>
       </c>
       <c r="V3" s="1">
-        <v>3.916984</v>
+        <v>3.9169839999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.040000</v>
+        <v>1206.04</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.498000</v>
+        <v>-107.498</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>14111.540190</v>
+        <v>14111.54019</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.919872</v>
+        <v>3.9198719999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.350000</v>
+        <v>1213.3499999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.311100</v>
+        <v>-90.311099999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>14122.070753</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.922797</v>
+        <v>3.9227970000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1217.940000</v>
+        <v>1217.94</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.824600</v>
+        <v>-85.824600000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>14132.403411</v>
+        <v>14132.403410999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.925668</v>
+        <v>3.9256679999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.116700</v>
+        <v>-89.116699999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>14142.955269</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.928599</v>
+        <v>3.9285990000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1232.780000</v>
+        <v>1232.78</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.957000</v>
+        <v>-100.95699999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>14153.732344</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.931592</v>
+        <v>3.9315920000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.202000</v>
+        <v>-120.202</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>14164.797097</v>
+        <v>14164.797097000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>3.934666</v>
       </c>
       <c r="BA3" s="1">
-        <v>1251.010000</v>
+        <v>1251.01</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.609000</v>
+        <v>-137.60900000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>14175.753226</v>
+        <v>14175.753226000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.937709</v>
+        <v>3.9377089999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1290.730000</v>
+        <v>1290.73</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.237000</v>
+        <v>-219.23699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>14186.524384</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.940701</v>
+        <v>3.9407009999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.493000</v>
+        <v>-355.49299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>14197.311838</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.943698</v>
+        <v>3.9436979999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.190000</v>
+        <v>-578.19000000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>14208.097839</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.946694</v>
+        <v>3.9466939999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1602.350000</v>
+        <v>1602.35</v>
       </c>
       <c r="BV3" s="1">
-        <v>-830.131000</v>
+        <v>-830.13099999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>14218.767282</v>
+        <v>14218.767282000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.949658</v>
+        <v>3.9496579999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1753.660000</v>
+        <v>1753.66</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1105.730000</v>
+        <v>-1105.73</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>14229.836034</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.952732</v>
+        <v>3.9527320000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2172.800000</v>
+        <v>2172.8000000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1774.580000</v>
+        <v>-1774.58</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>14059.544585</v>
       </c>
       <c r="B4" s="1">
-        <v>3.905429</v>
+        <v>3.9054289999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1142.540000</v>
+        <v>1142.54</v>
       </c>
       <c r="D4" s="1">
-        <v>-259.309000</v>
+        <v>-259.30900000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>14069.937718</v>
+        <v>14069.937717999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.908316</v>
+        <v>3.9083160000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.980000</v>
+        <v>1163.98</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.302000</v>
+        <v>-217.30199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>14080.405785</v>
+        <v>14080.405785000001</v>
       </c>
       <c r="L4" s="1">
-        <v>3.911224</v>
+        <v>3.9112239999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1191.140000</v>
+        <v>1191.1400000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.692000</v>
+        <v>-150.69200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>14090.914026</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.914143</v>
+        <v>3.9141430000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.840000</v>
+        <v>1198.8399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.547000</v>
+        <v>-128.547</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>14101.486284</v>
+        <v>14101.486284000001</v>
       </c>
       <c r="V4" s="1">
-        <v>3.917080</v>
+        <v>3.9170799999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.505000</v>
+        <v>-107.505</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>14111.890830</v>
+        <v>14111.89083</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.919970</v>
+        <v>3.9199700000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.316500</v>
+        <v>-90.316500000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>14122.724946</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.922979</v>
+        <v>3.9229790000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1217.930000</v>
+        <v>1217.93</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.839000</v>
+        <v>-85.838999999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>14133.058429</v>
+        <v>14133.058429000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.925850</v>
+        <v>3.9258500000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.087500</v>
+        <v>-89.087500000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>14143.378356</v>
+        <v>14143.378355999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.928716</v>
+        <v>3.9287160000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1232.780000</v>
+        <v>1232.78</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.970000</v>
+        <v>-100.97</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>14154.037415</v>
+        <v>14154.037415000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.931677</v>
+        <v>3.9316770000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.201000</v>
+        <v>-120.20099999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>14165.156200</v>
+        <v>14165.156199999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.934766</v>
+        <v>3.9347660000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1251.040000</v>
+        <v>1251.04</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.625000</v>
+        <v>-137.625</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>14176.112825</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.937809</v>
+        <v>3.9378090000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.690000</v>
+        <v>1290.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.219000</v>
+        <v>-219.21899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>14187.157243</v>
@@ -1175,76 +1591,76 @@
         <v>3.940877</v>
       </c>
       <c r="BK4" s="1">
-        <v>1359.490000</v>
+        <v>1359.49</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.488000</v>
+        <v>-355.488</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>14197.733933</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.943815</v>
+        <v>3.9438149999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1472.270000</v>
+        <v>1472.27</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.124000</v>
+        <v>-578.12400000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>14208.522415</v>
+        <v>14208.522414999999</v>
       </c>
       <c r="BT4" s="1">
         <v>3.946812</v>
       </c>
       <c r="BU4" s="1">
-        <v>1602.370000</v>
+        <v>1602.37</v>
       </c>
       <c r="BV4" s="1">
-        <v>-830.070000</v>
+        <v>-830.07</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>14219.211698</v>
+        <v>14219.211697999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.949781</v>
+        <v>3.9497810000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1753.520000</v>
+        <v>1753.52</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1105.580000</v>
+        <v>-1105.58</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>14230.355315</v>
+        <v>14230.355315000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.952876</v>
+        <v>3.9528759999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2170.020000</v>
+        <v>2170.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1775.300000</v>
+        <v>-1775.3</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>14060.226052</v>
       </c>
@@ -1252,133 +1668,133 @@
         <v>3.905618</v>
       </c>
       <c r="C5" s="1">
-        <v>1142.350000</v>
+        <v>1142.3499999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.776000</v>
+        <v>-258.77600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>14070.630134</v>
+        <v>14070.630134000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3.908508</v>
+        <v>3.9085079999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.840000</v>
+        <v>1163.8399999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.313000</v>
+        <v>-217.31299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>14080.747561</v>
       </c>
       <c r="L5" s="1">
-        <v>3.911319</v>
+        <v>3.9113190000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1190.900000</v>
+        <v>1190.9000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.574000</v>
+        <v>-150.57400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>14091.263706</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.914240</v>
+        <v>3.9142399999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.790000</v>
+        <v>1198.79</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.559000</v>
+        <v>-128.559</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>14101.828987</v>
+        <v>14101.828987000001</v>
       </c>
       <c r="V5" s="1">
-        <v>3.917175</v>
+        <v>3.9171749999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1205.960000</v>
+        <v>1205.96</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.626000</v>
+        <v>-107.626</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>14112.545053</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.920151</v>
+        <v>3.9201510000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.240000</v>
+        <v>1213.24</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.457800</v>
+        <v>-90.457800000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>14123.101450</v>
+        <v>14123.10145</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.923084</v>
+        <v>3.9230839999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.768200</v>
+        <v>-85.768199999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>14133.446466</v>
+        <v>14133.446465999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.925957</v>
+        <v>3.9259569999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1224.910000</v>
+        <v>1224.9100000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.106600</v>
+        <v>-89.1066</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>14143.754820</v>
+        <v>14143.75482</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.928821</v>
+        <v>3.9288210000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1232.770000</v>
+        <v>1232.77</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.970000</v>
+        <v>-100.97</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>14154.399958</v>
@@ -1387,150 +1803,150 @@
         <v>3.931778</v>
       </c>
       <c r="AV5" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.210000</v>
+        <v>-120.21</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>14165.513847</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.934865</v>
+        <v>3.9348649999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1251.040000</v>
+        <v>1251.04</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.641000</v>
+        <v>-137.64099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>14176.541369</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.937928</v>
+        <v>3.9379279999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1290.740000</v>
+        <v>1290.74</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.248000</v>
+        <v>-219.24799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>14187.303076</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.940918</v>
+        <v>3.9409179999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.511000</v>
+        <v>-355.51100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>14198.128253</v>
+        <v>14198.128253000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.943925</v>
+        <v>3.9439250000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.151000</v>
+        <v>-578.15099999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>14208.935086</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.946926</v>
+        <v>3.9469259999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1602.530000</v>
+        <v>1602.53</v>
       </c>
       <c r="BV5" s="1">
-        <v>-830.003000</v>
+        <v>-830.00300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>14219.641728</v>
+        <v>14219.641728000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.949900</v>
+        <v>3.9499</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1753.560000</v>
+        <v>1753.56</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1105.560000</v>
+        <v>-1105.56</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>14230.894466</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.953026</v>
+        <v>3.9530259999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2172.220000</v>
+        <v>2172.2199999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1775.790000</v>
+        <v>-1775.79</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>14060.570770</v>
+        <v>14060.57077</v>
       </c>
       <c r="B6" s="1">
-        <v>3.905714</v>
+        <v>3.9057140000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.490000</v>
+        <v>1142.49</v>
       </c>
       <c r="D6" s="1">
-        <v>-259.243000</v>
+        <v>-259.24299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>14070.974890</v>
+        <v>14070.97489</v>
       </c>
       <c r="G6" s="1">
         <v>3.908604</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.450000</v>
+        <v>1163.45</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.291000</v>
+        <v>-217.291</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>14081.097704</v>
@@ -1539,285 +1955,285 @@
         <v>3.911416</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.150000</v>
+        <v>1191.1500000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.949000</v>
+        <v>-150.94900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>14091.926858</v>
+        <v>14091.926858000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.914424</v>
+        <v>3.9144239999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.830000</v>
+        <v>1198.83</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.481000</v>
+        <v>-128.48099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>14102.476764</v>
+        <v>14102.476763999999</v>
       </c>
       <c r="V6" s="1">
-        <v>3.917355</v>
+        <v>3.9173550000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.020000</v>
+        <v>1206.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.556000</v>
+        <v>-107.556</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>14112.936397</v>
+        <v>14112.936396999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.920260</v>
+        <v>3.9202599999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1213.540000</v>
+        <v>1213.54</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.436400</v>
+        <v>-90.436400000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>14123.446127</v>
+        <v>14123.446126999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.923179</v>
+        <v>3.9231790000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1217.910000</v>
+        <v>1217.9100000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.799800</v>
+        <v>-85.799800000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>14133.798667</v>
+        <v>14133.798666999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.926055</v>
+        <v>3.9260549999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.108100</v>
+        <v>-89.108099999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>14144.144709</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.928929</v>
+        <v>3.9289290000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.976000</v>
+        <v>-100.976</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>14154.830983</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.931897</v>
+        <v>3.9318970000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.205000</v>
+        <v>-120.205</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>14165.934919</v>
+        <v>14165.934918999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.934982</v>
+        <v>3.9349820000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1251.060000</v>
+        <v>1251.06</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.620000</v>
+        <v>-137.62</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>14176.835496</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.938010</v>
+        <v>3.9380099999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.720000</v>
+        <v>1290.72</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.243000</v>
+        <v>-219.24299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>14187.679034</v>
+        <v>14187.679034000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.941022</v>
+        <v>3.9410219999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.509000</v>
+        <v>-355.50900000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>14198.547870</v>
+        <v>14198.54787</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.944041</v>
+        <v>3.9440409999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1472.350000</v>
+        <v>1472.35</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.122000</v>
+        <v>-578.12199999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>14209.352221</v>
+        <v>14209.352220999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.947042</v>
+        <v>3.9470420000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1602.670000</v>
+        <v>1602.67</v>
       </c>
       <c r="BV6" s="1">
-        <v>-830.005000</v>
+        <v>-830.005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>14220.202208</v>
+        <v>14220.202208000001</v>
       </c>
       <c r="BY6" s="1">
         <v>3.950056</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1753.500000</v>
+        <v>1753.5</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1105.760000</v>
+        <v>-1105.76</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>14231.435638</v>
+        <v>14231.435638000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.953177</v>
+        <v>3.9531770000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2171.440000</v>
+        <v>2171.44</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1774.320000</v>
+        <v>-1774.32</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>14060.917972</v>
+        <v>14060.917971999999</v>
       </c>
       <c r="B7" s="1">
-        <v>3.905811</v>
+        <v>3.9058109999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1142.280000</v>
+        <v>1142.28</v>
       </c>
       <c r="D7" s="1">
-        <v>-259.135000</v>
+        <v>-259.13499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>14071.318580</v>
+        <v>14071.318579999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3.908700</v>
+        <v>3.9087000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1164.500000</v>
+        <v>1164.5</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.937000</v>
+        <v>-216.93700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>14081.756918</v>
+        <v>14081.756917999999</v>
       </c>
       <c r="L7" s="1">
-        <v>3.911599</v>
+        <v>3.9115989999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1191.250000</v>
+        <v>1191.25</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.650000</v>
+        <v>-150.65</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>14092.309768</v>
+        <v>14092.309767999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.914530</v>
+        <v>3.9145300000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.533000</v>
+        <v>-128.53299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>14102.862684</v>
@@ -1826,13 +2242,13 @@
         <v>3.917462</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.474000</v>
+        <v>-107.474</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>14113.282605</v>
@@ -1841,13 +2257,13 @@
         <v>3.920356</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.501400</v>
+        <v>-90.501400000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>14123.794355</v>
@@ -1856,28 +2272,28 @@
         <v>3.923276</v>
       </c>
       <c r="AG7" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.845500</v>
+        <v>-85.845500000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>14134.147809</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.926152</v>
+        <v>3.9261520000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1224.920000</v>
+        <v>1224.92</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.090000</v>
+        <v>-89.09</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>14144.566772</v>
@@ -1886,195 +2302,195 @@
         <v>3.929046</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.988000</v>
+        <v>-100.988</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>14155.129573</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.931980</v>
+        <v>3.9319799999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.226000</v>
+        <v>-120.226</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>14166.232024</v>
+        <v>14166.232024000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.935064</v>
+        <v>3.9350640000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1251.050000</v>
+        <v>1251.05</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.607000</v>
+        <v>-137.607</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>14177.196591</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.938110</v>
+        <v>3.93811</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.720000</v>
+        <v>1290.72</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.267000</v>
+        <v>-219.267</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>14188.055529</v>
+        <v>14188.055528999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.941127</v>
+        <v>3.9411269999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.506000</v>
+        <v>-355.50599999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>14198.944669</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.944151</v>
+        <v>3.9441510000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.167000</v>
+        <v>-578.16700000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>14209.777789</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.947160</v>
+        <v>3.9471599999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1602.750000</v>
+        <v>1602.75</v>
       </c>
       <c r="BV7" s="1">
-        <v>-829.995000</v>
+        <v>-829.995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>14220.487408</v>
+        <v>14220.487408000001</v>
       </c>
       <c r="BY7" s="1">
         <v>3.950135</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1753.580000</v>
+        <v>1753.58</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1105.650000</v>
+        <v>-1105.6500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>14231.976240</v>
+        <v>14231.97624</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.953327</v>
+        <v>3.9533269999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2170.350000</v>
+        <v>2170.35</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1776.210000</v>
+        <v>-1776.21</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>14061.564259</v>
+        <v>14061.564259000001</v>
       </c>
       <c r="B8" s="1">
-        <v>3.905990</v>
+        <v>3.9059900000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.580000</v>
+        <v>1142.58</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.963000</v>
+        <v>-258.96300000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>14071.847316</v>
+        <v>14071.847315999999</v>
       </c>
       <c r="G8" s="1">
         <v>3.908846</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.630000</v>
+        <v>1163.6300000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.408000</v>
+        <v>-217.40799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>14082.132359</v>
+        <v>14082.132358999999</v>
       </c>
       <c r="L8" s="1">
-        <v>3.911703</v>
+        <v>3.9117030000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1191.300000</v>
+        <v>1191.3</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.634000</v>
+        <v>-150.63399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>14092.656472</v>
+        <v>14092.656472000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.914627</v>
+        <v>3.9146269999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.501000</v>
+        <v>-128.501</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>14103.203443</v>
@@ -2083,28 +2499,28 @@
         <v>3.917557</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.631000</v>
+        <v>-107.631</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>14113.631329</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.920453</v>
+        <v>3.9204530000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.290700</v>
+        <v>-90.290700000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>14124.219426</v>
@@ -2113,13 +2529,13 @@
         <v>3.923394</v>
       </c>
       <c r="AG8" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.815400</v>
+        <v>-85.815399999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>14134.569904</v>
@@ -2128,225 +2544,225 @@
         <v>3.926269</v>
       </c>
       <c r="AL8" s="1">
-        <v>1224.930000</v>
+        <v>1224.93</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.106100</v>
+        <v>-89.106099999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>14144.865363</v>
+        <v>14144.865363000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.929129</v>
+        <v>3.9291290000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1232.760000</v>
+        <v>1232.76</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.966000</v>
+        <v>-100.96599999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>14155.496646</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.932082</v>
+        <v>3.9320819999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.195000</v>
+        <v>-120.19499999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>14166.589671</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.935164</v>
+        <v>3.9351639999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.990000</v>
+        <v>1250.99</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.627000</v>
+        <v>-137.62700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>14177.556221</v>
+        <v>14177.556221000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.938210</v>
+        <v>3.9382100000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1290.740000</v>
+        <v>1290.74</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.269000</v>
+        <v>-219.26900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>14188.829753</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.941342</v>
+        <v>3.9413420000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1359.490000</v>
+        <v>1359.49</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.537000</v>
+        <v>-355.53699999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>14199.367293</v>
+        <v>14199.367292999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.944269</v>
+        <v>3.9442689999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.166000</v>
+        <v>-578.16600000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>14210.180541</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.947272</v>
+        <v>3.9472719999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1602.940000</v>
+        <v>1602.94</v>
       </c>
       <c r="BV8" s="1">
-        <v>-829.966000</v>
+        <v>-829.96600000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>14220.913967</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.950254</v>
+        <v>3.9502540000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1753.550000</v>
+        <v>1753.55</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1105.630000</v>
+        <v>-1105.6300000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>14232.515391</v>
+        <v>14232.515391000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.953476</v>
+        <v>3.9534760000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>2172.620000</v>
+        <v>2172.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1774.610000</v>
+        <v>-1774.61</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>14061.939233</v>
+        <v>14061.939232999999</v>
       </c>
       <c r="B9" s="1">
         <v>3.906094</v>
       </c>
       <c r="C9" s="1">
-        <v>1142.300000</v>
+        <v>1142.3</v>
       </c>
       <c r="D9" s="1">
-        <v>-259.333000</v>
+        <v>-259.33300000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>14072.002105</v>
       </c>
       <c r="G9" s="1">
-        <v>3.908889</v>
+        <v>3.9088889999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.370000</v>
+        <v>1163.3699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.604000</v>
+        <v>-216.60400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>14082.477606</v>
       </c>
       <c r="L9" s="1">
-        <v>3.911799</v>
+        <v>3.9117989999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1191.370000</v>
+        <v>1191.3699999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.619000</v>
+        <v>-150.619</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>14093.006649</v>
+        <v>14093.006649000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.914724</v>
+        <v>3.9147240000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.524000</v>
+        <v>-128.524</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>14103.546137</v>
+        <v>14103.546136999999</v>
       </c>
       <c r="V9" s="1">
-        <v>3.917652</v>
+        <v>3.9176519999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.010000</v>
+        <v>1206.01</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.567000</v>
+        <v>-107.56699999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>14114.049917</v>
@@ -2355,375 +2771,375 @@
         <v>3.920569</v>
       </c>
       <c r="AB9" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.296900</v>
+        <v>-90.296899999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>14124.491694</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.923470</v>
+        <v>3.92347</v>
       </c>
       <c r="AG9" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.823300</v>
+        <v>-85.823300000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>14134.850145</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.926347</v>
+        <v>3.9263469999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.083000</v>
+        <v>-89.082999999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>14145.226947</v>
+        <v>14145.226946999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.929230</v>
+        <v>3.92923</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.955000</v>
+        <v>-100.955</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>14155.858229</v>
+        <v>14155.858228999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.932183</v>
+        <v>3.9321830000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1242.660000</v>
+        <v>1242.6600000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.187000</v>
+        <v>-120.187</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>14166.950262</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.935264</v>
+        <v>3.9352640000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1251.030000</v>
+        <v>1251.03</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.632000</v>
+        <v>-137.63200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>14178.287626</v>
+        <v>14178.287625999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.938413</v>
+        <v>3.9384130000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1290.700000</v>
+        <v>1290.7</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.263000</v>
+        <v>-219.26300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>14189.208202</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.941447</v>
+        <v>3.9414470000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.495000</v>
+        <v>-355.495</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>14199.762074</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.944378</v>
+        <v>3.9443779999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.127000</v>
+        <v>-578.12699999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>14210.619004</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.947394</v>
+        <v>3.9473940000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1603.030000</v>
+        <v>1603.03</v>
       </c>
       <c r="BV9" s="1">
-        <v>-829.989000</v>
+        <v>-829.98900000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>14221.646063</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.950457</v>
+        <v>3.9504570000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1753.640000</v>
+        <v>1753.64</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1105.730000</v>
+        <v>-1105.73</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>14233.369007</v>
+        <v>14233.369006999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.953714</v>
+        <v>3.9537140000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>2171.480000</v>
+        <v>2171.48</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1776.610000</v>
+        <v>-1776.61</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>14062.288416</v>
+        <v>14062.288415999999</v>
       </c>
       <c r="B10" s="1">
-        <v>3.906191</v>
+        <v>3.9061910000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1142.320000</v>
+        <v>1142.32</v>
       </c>
       <c r="D10" s="1">
-        <v>-259.041000</v>
+        <v>-259.041</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>14072.350755</v>
+        <v>14072.350754999999</v>
       </c>
       <c r="G10" s="1">
-        <v>3.908986</v>
+        <v>3.9089860000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1163.740000</v>
+        <v>1163.74</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.363000</v>
+        <v>-217.363</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>14082.835189</v>
+        <v>14082.835188999999</v>
       </c>
       <c r="L10" s="1">
         <v>3.911899</v>
       </c>
       <c r="M10" s="1">
-        <v>1191.120000</v>
+        <v>1191.1199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.508000</v>
+        <v>-150.50800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>14093.440680</v>
+        <v>14093.44068</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.914845</v>
+        <v>3.9148450000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.571000</v>
+        <v>-128.571</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>14103.966745</v>
       </c>
       <c r="V10" s="1">
-        <v>3.917769</v>
+        <v>3.9177689999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.020000</v>
+        <v>1206.02</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.616000</v>
+        <v>-107.616</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>14114.329163</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.920647</v>
+        <v>3.9206470000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1213.350000</v>
+        <v>1213.3499999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.435600</v>
+        <v>-90.435599999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>14124.835918</v>
+        <v>14124.835918000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.923566</v>
+        <v>3.9235660000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1217.930000</v>
+        <v>1217.93</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.826900</v>
+        <v>-85.826899999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>14135.200353</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.926445</v>
+        <v>3.9264450000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.092700</v>
+        <v>-89.092699999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>14145.584562</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.929329</v>
+        <v>3.9293290000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1232.800000</v>
+        <v>1232.8</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.982000</v>
+        <v>-100.982</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>14156.590292</v>
+        <v>14156.590292000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.932386</v>
+        <v>3.9323860000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.223000</v>
+        <v>-120.223</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>14167.668438</v>
+        <v>14167.668438000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.935463</v>
+        <v>3.9354629999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1251.040000</v>
+        <v>1251.04</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.599000</v>
+        <v>-137.59899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>14178.666726</v>
+        <v>14178.666725999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.938519</v>
+        <v>3.9385189999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.720000</v>
+        <v>1290.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.269000</v>
+        <v>-219.26900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>14189.583672</v>
+        <v>14189.583672000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>3.941551</v>
       </c>
       <c r="BK10" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.552000</v>
+        <v>-355.55200000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>14200.186683</v>
@@ -2732,43 +3148,43 @@
         <v>3.944496</v>
       </c>
       <c r="BP10" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.119000</v>
+        <v>-578.11900000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>14211.360027</v>
+        <v>14211.360027000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.947600</v>
+        <v>3.9476</v>
       </c>
       <c r="BU10" s="1">
-        <v>1603.050000</v>
+        <v>1603.05</v>
       </c>
       <c r="BV10" s="1">
-        <v>-830.230000</v>
+        <v>-830.23</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>14221.787917</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.950497</v>
+        <v>3.9504969999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1753.680000</v>
+        <v>1753.68</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1105.750000</v>
+        <v>-1105.75</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>14233.593197</v>
@@ -2777,75 +3193,75 @@
         <v>3.953776</v>
       </c>
       <c r="CE10" s="1">
-        <v>2171.070000</v>
+        <v>2171.0700000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1776.330000</v>
+        <v>-1776.33</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>14062.628176</v>
       </c>
       <c r="B11" s="1">
-        <v>3.906286</v>
+        <v>3.9062860000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1142.110000</v>
+        <v>1142.1099999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.201000</v>
+        <v>-259.20100000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>14072.773346</v>
       </c>
       <c r="G11" s="1">
-        <v>3.909104</v>
+        <v>3.9091040000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1164.250000</v>
+        <v>1164.25</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.727000</v>
+        <v>-217.727</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>14083.258772</v>
+        <v>14083.258771999999</v>
       </c>
       <c r="L11" s="1">
-        <v>3.912016</v>
+        <v>3.9120159999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1191.130000</v>
+        <v>1191.1300000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.641000</v>
+        <v>-150.64099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>14093.719894</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.914922</v>
+        <v>3.9149219999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.820000</v>
+        <v>1198.82</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.555000</v>
+        <v>-128.55500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>14104.271784</v>
@@ -2854,375 +3270,375 @@
         <v>3.917853</v>
       </c>
       <c r="W11" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.618000</v>
+        <v>-107.61799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>14114.676858</v>
+        <v>14114.676858000001</v>
       </c>
       <c r="AA11" s="1">
         <v>3.920744</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.440000</v>
+        <v>1213.44</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.351500</v>
+        <v>-90.351500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>14125.179149</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.923661</v>
+        <v>3.9236610000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.822300</v>
+        <v>-85.822299999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>14135.549008</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.926541</v>
+        <v>3.9265409999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.100700</v>
+        <v>-89.100700000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>14146.309713</v>
+        <v>14146.309713000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.929530</v>
+        <v>3.9295300000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.997000</v>
+        <v>-100.997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>14156.981139</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.932495</v>
+        <v>3.9324949999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.660000</v>
+        <v>1242.6600000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.213000</v>
+        <v>-120.21299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>14168.024070</v>
+        <v>14168.024069999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>3.935562</v>
       </c>
       <c r="BA11" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.580000</v>
+        <v>-137.58000000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>14179.055095</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.938626</v>
+        <v>3.9386260000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1290.750000</v>
+        <v>1290.75</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.270000</v>
+        <v>-219.27</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>14190.272615</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.941742</v>
+        <v>3.9417420000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.516000</v>
+        <v>-355.51600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>14200.891496</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.944692</v>
+        <v>3.9446919999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.131000</v>
+        <v>-578.13099999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>14211.492459</v>
+        <v>14211.492458999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.947637</v>
+        <v>3.9476369999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1603.170000</v>
+        <v>1603.17</v>
       </c>
       <c r="BV11" s="1">
-        <v>-830.339000</v>
+        <v>-830.33900000000006</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>14222.211997</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.950614</v>
+        <v>3.9506139999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1753.720000</v>
+        <v>1753.72</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1105.600000</v>
+        <v>-1105.5999999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>14234.114990</v>
+        <v>14234.11499</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.953921</v>
+        <v>3.9539209999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2172.690000</v>
+        <v>2172.69</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1775.520000</v>
+        <v>-1775.52</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>14063.065152</v>
+        <v>14063.065151999999</v>
       </c>
       <c r="B12" s="1">
-        <v>3.906407</v>
+        <v>3.9064070000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1142.370000</v>
+        <v>1142.3699999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.742000</v>
+        <v>-258.74200000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>14073.055105</v>
+        <v>14073.055104999999</v>
       </c>
       <c r="G12" s="1">
-        <v>3.909182</v>
+        <v>3.9091819999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.910000</v>
+        <v>1163.9100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.732000</v>
+        <v>-216.732</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>14083.529419</v>
       </c>
       <c r="L12" s="1">
-        <v>3.912092</v>
+        <v>3.9120919999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.470000</v>
+        <v>1191.47</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.792000</v>
+        <v>-150.792</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>14094.070070</v>
+        <v>14094.07007</v>
       </c>
       <c r="Q12" s="1">
         <v>3.915019</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.522000</v>
+        <v>-128.52199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>14104.617497</v>
+        <v>14104.617496999999</v>
       </c>
       <c r="V12" s="1">
-        <v>3.917949</v>
+        <v>3.9179490000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.573000</v>
+        <v>-107.57299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>14115.023562</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.920840</v>
+        <v>3.9208400000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.350000</v>
+        <v>1213.3499999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.533400</v>
+        <v>-90.5334</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>14125.867597</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.923852</v>
+        <v>3.9238520000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1217.850000</v>
+        <v>1217.8499999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.775200</v>
+        <v>-85.775199999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>14136.248864</v>
+        <v>14136.248863999999</v>
       </c>
       <c r="AK12" s="1">
         <v>3.926736</v>
       </c>
       <c r="AL12" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.126300</v>
+        <v>-89.126300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>14146.688656</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.929636</v>
+        <v>3.9296359999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1232.780000</v>
+        <v>1232.78</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.959000</v>
+        <v>-100.959</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>14157.346728</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.932596</v>
+        <v>3.9325960000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.660000</v>
+        <v>1242.6600000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.206000</v>
+        <v>-120.206</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>14168.384660</v>
+        <v>14168.38466</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.935662</v>
+        <v>3.9356620000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.630000</v>
+        <v>-137.63</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>14179.727204</v>
+        <v>14179.727204000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.938813</v>
+        <v>3.9388130000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1290.690000</v>
+        <v>1290.69</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.252000</v>
+        <v>-219.25200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>14190.738395</v>
@@ -3231,225 +3647,225 @@
         <v>3.941872</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.490000</v>
+        <v>1359.49</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.557000</v>
+        <v>-355.55700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>14201.016953</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.944727</v>
+        <v>3.9447269999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1472.270000</v>
+        <v>1472.27</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.127000</v>
+        <v>-578.12699999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>14211.906154</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.947752</v>
+        <v>3.9477519999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1603.140000</v>
+        <v>1603.14</v>
       </c>
       <c r="BV12" s="1">
-        <v>-830.459000</v>
+        <v>-830.45899999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>14222.631148</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.950731</v>
+        <v>3.9507310000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1753.690000</v>
+        <v>1753.69</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1105.580000</v>
+        <v>-1105.58</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>14234.632559</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.954065</v>
+        <v>3.9540649999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2172.110000</v>
+        <v>2172.11</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1776.200000</v>
+        <v>-1776.2</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>14063.329061</v>
       </c>
       <c r="B13" s="1">
-        <v>3.906480</v>
+        <v>3.9064800000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1142.100000</v>
+        <v>1142.0999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.919000</v>
+        <v>-258.91899999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>14073.398801</v>
+        <v>14073.398800999999</v>
       </c>
       <c r="G13" s="1">
-        <v>3.909277</v>
+        <v>3.9092769999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.500000</v>
+        <v>1163.5</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.917000</v>
+        <v>-216.917</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>14083.873347</v>
+        <v>14083.873347000001</v>
       </c>
       <c r="L13" s="1">
-        <v>3.912187</v>
+        <v>3.9121869999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1191.150000</v>
+        <v>1191.1500000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.877000</v>
+        <v>-150.87700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>14094.415781</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.915115</v>
+        <v>3.9151150000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.476000</v>
+        <v>-128.476</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>14105.303959</v>
+        <v>14105.303959000001</v>
       </c>
       <c r="V13" s="1">
-        <v>3.918140</v>
+        <v>3.9181400000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.070000</v>
+        <v>1206.07</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.553000</v>
+        <v>-107.553</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>14115.727386</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.921035</v>
+        <v>3.9210349999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.350000</v>
+        <v>1213.3499999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.383100</v>
+        <v>-90.383099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>14126.209836</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.923947</v>
+        <v>3.9239470000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.809200</v>
+        <v>-85.809200000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>14136.598083</v>
+        <v>14136.598083000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.926833</v>
+        <v>3.9268329999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1224.920000</v>
+        <v>1224.92</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.126700</v>
+        <v>-89.1267</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>14147.050240</v>
+        <v>14147.05024</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.929736</v>
+        <v>3.9297360000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.965000</v>
+        <v>-100.965</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>14158.023729</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.932784</v>
+        <v>3.9327839999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.199000</v>
+        <v>-120.199</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>14169.053764</v>
@@ -3458,13 +3874,13 @@
         <v>3.935848</v>
       </c>
       <c r="BA13" s="1">
-        <v>1251.010000</v>
+        <v>1251.01</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.588000</v>
+        <v>-137.58799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>14180.170822</v>
@@ -3473,195 +3889,195 @@
         <v>3.938936</v>
       </c>
       <c r="BF13" s="1">
-        <v>1290.690000</v>
+        <v>1290.69</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.276000</v>
+        <v>-219.27600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>14191.128743</v>
+        <v>14191.128742999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.941980</v>
+        <v>3.94198</v>
       </c>
       <c r="BK13" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.527000</v>
+        <v>-355.52699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>14201.426675</v>
+        <v>14201.426675000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.944841</v>
+        <v>3.9448409999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.133000</v>
+        <v>-578.13300000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>14212.336649</v>
+        <v>14212.336649000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.947871</v>
+        <v>3.9478710000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1603.140000</v>
+        <v>1603.14</v>
       </c>
       <c r="BV13" s="1">
-        <v>-830.616000</v>
+        <v>-830.61599999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>14223.079537</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.950855</v>
+        <v>3.9508549999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1753.660000</v>
+        <v>1753.66</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1105.720000</v>
+        <v>-1105.72</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>14235.194283</v>
+        <v>14235.194283000001</v>
       </c>
       <c r="CD13" s="1">
         <v>3.954221</v>
       </c>
       <c r="CE13" s="1">
-        <v>2170.370000</v>
+        <v>2170.37</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1776.410000</v>
+        <v>-1776.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>14063.671758</v>
       </c>
       <c r="B14" s="1">
-        <v>3.906575</v>
+        <v>3.9065750000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1142.480000</v>
+        <v>1142.48</v>
       </c>
       <c r="D14" s="1">
-        <v>-259.172000</v>
+        <v>-259.17200000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>14073.742528</v>
+        <v>14073.742528000001</v>
       </c>
       <c r="G14" s="1">
         <v>3.909373</v>
       </c>
       <c r="H14" s="1">
-        <v>1163.980000</v>
+        <v>1163.98</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.241000</v>
+        <v>-217.24100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>14084.219027</v>
+        <v>14084.219026999999</v>
       </c>
       <c r="L14" s="1">
         <v>3.912283</v>
       </c>
       <c r="M14" s="1">
-        <v>1191.360000</v>
+        <v>1191.3599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.807000</v>
+        <v>-150.80699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>14095.114645</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.915310</v>
+        <v>3.9153099999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.585000</v>
+        <v>-128.58500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>14105.652647</v>
+        <v>14105.652647000001</v>
       </c>
       <c r="V14" s="1">
         <v>3.918237</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.110000</v>
+        <v>1206.1099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.442000</v>
+        <v>-107.44199999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>14116.072105</v>
+        <v>14116.072104999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.921131</v>
+        <v>3.9211309999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.573000</v>
+        <v>-90.572999999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>14126.554592</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.924043</v>
+        <v>3.9240430000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.858100</v>
+        <v>-85.858099999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>14136.957149</v>
@@ -3670,330 +4086,330 @@
         <v>3.926933</v>
       </c>
       <c r="AL14" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.105800</v>
+        <v>-89.105800000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>14147.721327</v>
+        <v>14147.721326999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.929923</v>
+        <v>3.9299230000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1232.770000</v>
+        <v>1232.77</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.984000</v>
+        <v>-100.98399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>14158.476577</v>
+        <v>14158.476576999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.932910</v>
+        <v>3.9329100000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.183000</v>
+        <v>-120.18300000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>14169.459987</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.935961</v>
+        <v>3.9359609999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1251.000000</v>
+        <v>1251</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.603000</v>
+        <v>-137.60300000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>14180.532180</v>
+        <v>14180.53218</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.939037</v>
+        <v>3.9390369999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1290.710000</v>
+        <v>1290.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.282000</v>
+        <v>-219.28200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>14191.505205</v>
+        <v>14191.505204999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.942085</v>
+        <v>3.9420850000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.510000</v>
+        <v>-355.51</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>14201.821464</v>
+        <v>14201.821464000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.944950</v>
+        <v>3.94495</v>
       </c>
       <c r="BP14" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.180000</v>
+        <v>-578.17999999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>14212.765221</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.947990</v>
+        <v>3.9479899999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1603.150000</v>
+        <v>1603.15</v>
       </c>
       <c r="BV14" s="1">
-        <v>-830.692000</v>
+        <v>-830.69200000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>14223.500288</v>
+        <v>14223.500287999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.950972</v>
+        <v>3.9509720000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1753.600000</v>
+        <v>1753.6</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1105.740000</v>
+        <v>-1105.74</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>14235.714586</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.954365</v>
+        <v>3.9543650000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2172.570000</v>
+        <v>2172.5700000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1776.080000</v>
+        <v>-1776.08</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>14064.013039</v>
+        <v>14064.013038999999</v>
       </c>
       <c r="B15" s="1">
-        <v>3.906670</v>
+        <v>3.9066700000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1142.150000</v>
+        <v>1142.1500000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.841000</v>
+        <v>-258.84100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>14074.433952</v>
+        <v>14074.433951999999</v>
       </c>
       <c r="G15" s="1">
-        <v>3.909565</v>
+        <v>3.9095650000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1163.930000</v>
+        <v>1163.93</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.008000</v>
+        <v>-217.00800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>14084.914418</v>
       </c>
       <c r="L15" s="1">
-        <v>3.912476</v>
+        <v>3.9124759999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1191.070000</v>
+        <v>1191.07</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.929000</v>
+        <v>-150.929</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>14095.461844</v>
+        <v>14095.461843999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.915406</v>
+        <v>3.9154059999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.600000</v>
+        <v>-128.6</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>14105.996870</v>
+        <v>14105.996870000001</v>
       </c>
       <c r="V15" s="1">
-        <v>3.918332</v>
+        <v>3.9183319999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.040000</v>
+        <v>1206.04</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.601000</v>
+        <v>-107.601</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>14116.422281</v>
+        <v>14116.422280999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.921228</v>
+        <v>3.9212280000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.440000</v>
+        <v>1213.44</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.422200</v>
+        <v>-90.422200000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>14127.211787</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.924225</v>
+        <v>3.9242249999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1217.930000</v>
+        <v>1217.93</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.783300</v>
+        <v>-85.783299999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>14137.393164</v>
+        <v>14137.393163999999</v>
       </c>
       <c r="AK15" s="1">
         <v>3.927054</v>
       </c>
       <c r="AL15" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.117000</v>
+        <v>-89.117000000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>14148.127551</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.930035</v>
+        <v>3.9300350000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1232.760000</v>
+        <v>1232.76</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.965000</v>
+        <v>-100.965</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>14158.836699</v>
+        <v>14158.836698999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.933010</v>
+        <v>3.9330099999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.218000</v>
+        <v>-120.218</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>14169.846371</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.936068</v>
+        <v>3.9360680000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.607000</v>
+        <v>-137.607</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>14180.894259</v>
+        <v>14180.894259000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.939137</v>
+        <v>3.9391370000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1290.710000</v>
+        <v>1290.71</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.254000</v>
+        <v>-219.25399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>14191.928297</v>
@@ -4002,225 +4418,225 @@
         <v>3.942202</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.546000</v>
+        <v>-355.54599999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>14202.250999</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.945070</v>
+        <v>3.9450699999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1472.320000</v>
+        <v>1472.32</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.190000</v>
+        <v>-578.19000000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>14213.163017</v>
+        <v>14213.163017000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.948101</v>
+        <v>3.9481009999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1602.920000</v>
+        <v>1602.92</v>
       </c>
       <c r="BV15" s="1">
-        <v>-830.838000</v>
+        <v>-830.83799999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>14223.923690</v>
+        <v>14223.92369</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.951090</v>
+        <v>3.9510900000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1753.660000</v>
+        <v>1753.66</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1105.840000</v>
+        <v>-1105.8399999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>14236.232908</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.954509</v>
+        <v>3.9545089999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2171.700000</v>
+        <v>2171.6999999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1776.420000</v>
+        <v>-1776.42</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>14064.695004</v>
+        <v>14064.695003999999</v>
       </c>
       <c r="B16" s="1">
-        <v>3.906860</v>
+        <v>3.90686</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.310000</v>
+        <v>1142.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-259.037000</v>
+        <v>-259.03699999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>14074.779668</v>
+        <v>14074.779667999999</v>
       </c>
       <c r="G16" s="1">
-        <v>3.909661</v>
+        <v>3.9096609999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1164.170000</v>
+        <v>1164.17</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.519000</v>
+        <v>-216.51900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>14085.264098</v>
       </c>
       <c r="L16" s="1">
-        <v>3.912573</v>
+        <v>3.9125730000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1191.110000</v>
+        <v>1191.1099999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.742000</v>
+        <v>-150.74199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>14095.812516</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.915503</v>
+        <v>3.9155030000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.780000</v>
+        <v>1198.78</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.511000</v>
+        <v>-128.511</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>14106.651094</v>
+        <v>14106.651094000001</v>
       </c>
       <c r="V16" s="1">
-        <v>3.918514</v>
+        <v>3.9185140000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.483000</v>
+        <v>-107.483</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>14117.076009</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.921410</v>
+        <v>3.9214099999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1213.380000</v>
+        <v>1213.3800000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.430900</v>
+        <v>-90.430899999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>14127.585268</v>
+        <v>14127.585268000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.924329</v>
+        <v>3.9243290000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.763100</v>
+        <v>-85.763099999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>14137.660017</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.927128</v>
+        <v>3.9271280000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1224.880000</v>
+        <v>1224.8800000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.095900</v>
+        <v>-89.0959</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>14148.513934</v>
+        <v>14148.513934000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.930143</v>
+        <v>3.9301430000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1232.760000</v>
+        <v>1232.76</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.993000</v>
+        <v>-100.99299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>14159.202754</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.933112</v>
+        <v>3.9331119999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.199000</v>
+        <v>-120.199</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>14170.208945</v>
@@ -4229,43 +4645,43 @@
         <v>3.936169</v>
       </c>
       <c r="BA16" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.609000</v>
+        <v>-137.60900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>14181.320617</v>
+        <v>14181.320616999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.939256</v>
+        <v>3.9392559999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1290.690000</v>
+        <v>1290.69</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.256000</v>
+        <v>-219.256</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>14192.253140</v>
+        <v>14192.253140000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.942293</v>
+        <v>3.9422929999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1359.500000</v>
+        <v>1359.5</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.512000</v>
+        <v>-355.512</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>14202.642838</v>
@@ -4274,43 +4690,43 @@
         <v>3.945179</v>
       </c>
       <c r="BP16" s="1">
-        <v>1472.300000</v>
+        <v>1472.3</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.138000</v>
+        <v>-578.13800000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>14213.582104</v>
+        <v>14213.582103999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.948217</v>
+        <v>3.9482170000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1602.950000</v>
+        <v>1602.95</v>
       </c>
       <c r="BV16" s="1">
-        <v>-830.894000</v>
+        <v>-830.89400000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>14224.373562</v>
+        <v>14224.373562000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.951215</v>
+        <v>3.9512149999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1753.740000</v>
+        <v>1753.74</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1105.630000</v>
+        <v>-1105.6300000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>14236.795903</v>
@@ -4319,16 +4735,16 @@
         <v>3.954666</v>
       </c>
       <c r="CE16" s="1">
-        <v>2169.930000</v>
+        <v>2169.9299999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1775.830000</v>
+        <v>-1775.83</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>14065.038268</v>
       </c>
@@ -4336,73 +4752,73 @@
         <v>3.906955</v>
       </c>
       <c r="C17" s="1">
-        <v>1142.200000</v>
+        <v>1142.2</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.896000</v>
+        <v>-258.89600000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>14075.132350</v>
+        <v>14075.13235</v>
       </c>
       <c r="G17" s="1">
-        <v>3.909759</v>
+        <v>3.9097590000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.010000</v>
+        <v>1164.01</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.993000</v>
+        <v>-216.99299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>14085.612465</v>
       </c>
       <c r="L17" s="1">
-        <v>3.912670</v>
+        <v>3.9126699999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1190.990000</v>
+        <v>1190.99</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.583000</v>
+        <v>-150.583</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>14096.474701</v>
+        <v>14096.474700999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.915687</v>
+        <v>3.9156870000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.483000</v>
+        <v>-128.483</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>14107.029045</v>
+        <v>14107.029044999999</v>
       </c>
       <c r="V17" s="1">
-        <v>3.918619</v>
+        <v>3.9186190000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.540000</v>
+        <v>-107.54</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>14117.469863</v>
@@ -4411,103 +4827,103 @@
         <v>3.921519</v>
       </c>
       <c r="AB17" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.441800</v>
+        <v>-90.441800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>14127.926985</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.924424</v>
+        <v>3.9244240000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.768300</v>
+        <v>-85.768299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>14138.007180</v>
+        <v>14138.007180000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.927224</v>
+        <v>3.9272239999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1224.910000</v>
+        <v>1224.9100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.124700</v>
+        <v>-89.124700000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>14148.873535</v>
+        <v>14148.873535000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.930243</v>
+        <v>3.9302429999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1232.780000</v>
+        <v>1232.78</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.989000</v>
+        <v>-100.989</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>14159.633279</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.933231</v>
+        <v>3.9332310000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.193000</v>
+        <v>-120.193</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>14170.920208</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.936367</v>
+        <v>3.9363670000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.598000</v>
+        <v>-137.59800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>14181.615938</v>
+        <v>14181.615938000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.939338</v>
+        <v>3.9393379999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.720000</v>
+        <v>1290.72</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.240000</v>
+        <v>-219.24</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>14192.638073</v>
@@ -4516,105 +4932,105 @@
         <v>3.942399</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.440000</v>
+        <v>1359.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.508000</v>
+        <v>-355.50799999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>14203.062455</v>
+        <v>14203.062454999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.945295</v>
+        <v>3.9452950000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.130000</v>
+        <v>-578.13</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>14213.995271</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.948332</v>
+        <v>3.9483320000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1602.740000</v>
+        <v>1602.74</v>
       </c>
       <c r="BV17" s="1">
-        <v>-830.908000</v>
+        <v>-830.90800000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>14224.804090</v>
+        <v>14224.80409</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.951334</v>
+        <v>3.9513340000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1753.640000</v>
+        <v>1753.64</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1105.610000</v>
+        <v>-1105.6099999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>14237.314713</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.954810</v>
+        <v>3.9548100000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2171.970000</v>
+        <v>2171.9699999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1776.300000</v>
+        <v>-1776.3</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>14065.379484</v>
+        <v>14065.379483999999</v>
       </c>
       <c r="B18" s="1">
-        <v>3.907050</v>
+        <v>3.9070499999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1142.590000</v>
+        <v>1142.5899999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.928000</v>
+        <v>-258.928</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>14075.784592</v>
       </c>
       <c r="G18" s="1">
-        <v>3.909940</v>
+        <v>3.9099400000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.890000</v>
+        <v>1163.8900000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.148000</v>
+        <v>-217.148</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>14086.267505</v>
@@ -4623,163 +5039,163 @@
         <v>3.912852</v>
       </c>
       <c r="M18" s="1">
-        <v>1191.320000</v>
+        <v>1191.32</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.693000</v>
+        <v>-150.69300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>14096.859108</v>
+        <v>14096.859108000001</v>
       </c>
       <c r="Q18" s="1">
         <v>3.915794</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.508000</v>
+        <v>-128.50800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>14107.373268</v>
+        <v>14107.373267999999</v>
       </c>
       <c r="V18" s="1">
-        <v>3.918715</v>
+        <v>3.9187150000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.040000</v>
+        <v>1206.04</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.603000</v>
+        <v>-107.60299999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>14117.817527</v>
+        <v>14117.817526999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.921616</v>
+        <v>3.9216160000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1213.140000</v>
+        <v>1213.1400000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.275400</v>
+        <v>-90.275400000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>14128.273689</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.924520</v>
+        <v>3.9245199999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.800400</v>
+        <v>-85.800399999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>14138.425334</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.927340</v>
+        <v>3.9273400000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.106600</v>
+        <v>-89.1066</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>14149.289677</v>
+        <v>14149.289677000001</v>
       </c>
       <c r="AP18" s="1">
         <v>3.930358</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1232.750000</v>
+        <v>1232.75</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.973000</v>
+        <v>-100.973</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>14159.933359</v>
+        <v>14159.933359000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.933315</v>
+        <v>3.9333149999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.205000</v>
+        <v>-120.205</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>14171.279808</v>
+        <v>14171.279807999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.936467</v>
+        <v>3.9364669999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1251.050000</v>
+        <v>1251.05</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.619000</v>
+        <v>-137.619</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>14181.976530</v>
+        <v>14181.97653</v>
       </c>
       <c r="BE18" s="1">
         <v>3.939438</v>
       </c>
       <c r="BF18" s="1">
-        <v>1290.710000</v>
+        <v>1290.71</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.268000</v>
+        <v>-219.268</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>14193.028388</v>
+        <v>14193.028388000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.942508</v>
+        <v>3.9425080000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.522000</v>
+        <v>-355.52199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>14203.627397</v>
@@ -4788,28 +5204,28 @@
         <v>3.945452</v>
       </c>
       <c r="BP18" s="1">
-        <v>1472.330000</v>
+        <v>1472.33</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.170000</v>
+        <v>-578.16999999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>14214.419847</v>
+        <v>14214.419846999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.948450</v>
+        <v>3.9484499999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1602.640000</v>
+        <v>1602.64</v>
       </c>
       <c r="BV18" s="1">
-        <v>-830.962000</v>
+        <v>-830.96199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>14225.224697</v>
@@ -4818,105 +5234,105 @@
         <v>3.951451</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1753.720000</v>
+        <v>1753.72</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1105.700000</v>
+        <v>-1105.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>14237.835513</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.954954</v>
+        <v>3.9549539999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2171.640000</v>
+        <v>2171.64</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1776.130000</v>
+        <v>-1776.13</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>14066.027787</v>
+        <v>14066.027787000001</v>
       </c>
       <c r="B19" s="1">
-        <v>3.907230</v>
+        <v>3.9072300000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1142.460000</v>
+        <v>1142.46</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.801000</v>
+        <v>-258.80099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>14076.162048</v>
       </c>
       <c r="G19" s="1">
-        <v>3.910045</v>
+        <v>3.9100450000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.110000</v>
+        <v>1164.1099999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.291000</v>
+        <v>-217.291</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>14086.647935</v>
+        <v>14086.647935000001</v>
       </c>
       <c r="L19" s="1">
-        <v>3.912958</v>
+        <v>3.9129580000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.190000</v>
+        <v>1191.19</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.812000</v>
+        <v>-150.81200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>14097.208754</v>
+        <v>14097.208753999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.915891</v>
+        <v>3.9158909999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.557000</v>
+        <v>-128.55699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>14107.715508</v>
+        <v>14107.715507999999</v>
       </c>
       <c r="V19" s="1">
-        <v>3.918810</v>
+        <v>3.9188100000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.070000</v>
+        <v>1206.07</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.569000</v>
+        <v>-107.569</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>14118.165751</v>
@@ -4925,133 +5341,133 @@
         <v>3.921713</v>
       </c>
       <c r="AB19" s="1">
-        <v>1213.360000</v>
+        <v>1213.3599999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.417100</v>
+        <v>-90.417100000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>14128.704216</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.924640</v>
+        <v>3.9246400000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.774600</v>
+        <v>-85.774600000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>14138.703563</v>
+        <v>14138.703562999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.927418</v>
+        <v>3.9274179999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.103800</v>
+        <v>-89.103800000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>14149.592237</v>
+        <v>14149.592237000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.930442</v>
+        <v>3.9304420000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1232.770000</v>
+        <v>1232.77</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.978000</v>
+        <v>-100.97799999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>14160.298878</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.933416</v>
+        <v>3.9334159999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.213000</v>
+        <v>-120.21299999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>14171.639904</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.936567</v>
+        <v>3.9365670000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.614000</v>
+        <v>-137.614</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>14182.336130</v>
+        <v>14182.33613</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.939538</v>
+        <v>3.9395380000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1290.750000</v>
+        <v>1290.75</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.260000</v>
+        <v>-219.26</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>14193.774898</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.942715</v>
+        <v>3.9427150000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.516000</v>
+        <v>-355.51600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>14203.877877</v>
+        <v>14203.877877000001</v>
       </c>
       <c r="BO19" s="1">
         <v>3.945522</v>
       </c>
       <c r="BP19" s="1">
-        <v>1472.290000</v>
+        <v>1472.29</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.106000</v>
+        <v>-578.10599999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>14214.828087</v>
@@ -5060,195 +5476,195 @@
         <v>3.948563</v>
       </c>
       <c r="BU19" s="1">
-        <v>1602.640000</v>
+        <v>1602.64</v>
       </c>
       <c r="BV19" s="1">
-        <v>-830.850000</v>
+        <v>-830.85</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>14225.648281</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.951569</v>
+        <v>3.9515690000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1753.790000</v>
+        <v>1753.79</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1105.730000</v>
+        <v>-1105.73</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>14238.688600</v>
+        <v>14238.688599999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.955191</v>
+        <v>3.9551910000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2170.420000</v>
+        <v>2170.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1776.480000</v>
+        <v>-1776.48</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>14066.404715</v>
+        <v>14066.404715000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.907335</v>
+        <v>3.9073349999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1142.370000</v>
+        <v>1142.3699999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-259.267000</v>
+        <v>-259.267</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>14076.507726</v>
       </c>
       <c r="G20" s="1">
-        <v>3.910141</v>
+        <v>3.9101409999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.640000</v>
+        <v>1163.6400000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.504000</v>
+        <v>-217.50399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>14086.993648</v>
       </c>
       <c r="L20" s="1">
-        <v>3.913054</v>
+        <v>3.9130539999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.050000</v>
+        <v>1191.05</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.106000</v>
+        <v>-151.10599999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>14097.554466</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.915987</v>
+        <v>3.9159869999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.840000</v>
+        <v>1198.8399999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.617000</v>
+        <v>-128.61699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>14108.134132</v>
+        <v>14108.134131999999</v>
       </c>
       <c r="V20" s="1">
-        <v>3.918926</v>
+        <v>3.9189259999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.490000</v>
+        <v>-107.49</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>14118.588345</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.921830</v>
+        <v>3.9218299999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.320000</v>
+        <v>1213.32</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.037300</v>
+        <v>-90.037300000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>14128.982473</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.924717</v>
+        <v>3.9247169999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1217.920000</v>
+        <v>1217.92</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.753200</v>
+        <v>-85.753200000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>14139.052747</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.927515</v>
+        <v>3.9275150000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.139600</v>
+        <v>-89.139600000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>14149.953820</v>
+        <v>14149.953820000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.930543</v>
+        <v>3.9305430000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.981000</v>
+        <v>-100.98099999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>14160.662975</v>
+        <v>14160.662974999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.933517</v>
+        <v>3.9335170000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.192000</v>
+        <v>-120.19199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>14172.357614</v>
@@ -5257,28 +5673,28 @@
         <v>3.936766</v>
       </c>
       <c r="BA20" s="1">
-        <v>1251.040000</v>
+        <v>1251.04</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.611000</v>
+        <v>-137.61099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>14183.060817</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.939739</v>
+        <v>3.9397389999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1290.710000</v>
+        <v>1290.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.258000</v>
+        <v>-219.25800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>14194.179139</v>
@@ -5287,105 +5703,105 @@
         <v>3.942828</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.526000</v>
+        <v>-355.52600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>14204.274182</v>
+        <v>14204.274181999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.945632</v>
+        <v>3.9456319999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1472.260000</v>
+        <v>1472.26</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.181000</v>
+        <v>-578.18100000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>14215.242214</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.948678</v>
+        <v>3.9486780000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1602.390000</v>
+        <v>1602.39</v>
       </c>
       <c r="BV20" s="1">
-        <v>-830.801000</v>
+        <v>-830.80100000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>14226.408151</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.951780</v>
+        <v>3.9517799999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1753.640000</v>
+        <v>1753.64</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1105.640000</v>
+        <v>-1105.6400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>14238.914279</v>
+        <v>14238.914279000001</v>
       </c>
       <c r="CD20" s="1">
         <v>3.955254</v>
       </c>
       <c r="CE20" s="1">
-        <v>2172.490000</v>
+        <v>2172.4899999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1776.200000</v>
+        <v>-1776.2</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>14066.749436</v>
       </c>
       <c r="B21" s="1">
-        <v>3.907430</v>
+        <v>3.9074300000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1142.400000</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-259.145000</v>
+        <v>-259.14499999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>14076.852446</v>
+        <v>14076.852446000001</v>
       </c>
       <c r="G21" s="1">
         <v>3.910237</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.940000</v>
+        <v>1163.94</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.491000</v>
+        <v>-217.49100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>14087.343327</v>
@@ -5394,43 +5810,43 @@
         <v>3.913151</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.230000</v>
+        <v>1191.23</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.845000</v>
+        <v>-150.845</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>14097.975569</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.916104</v>
+        <v>3.9161039999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.780000</v>
+        <v>1198.78</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.573000</v>
+        <v>-128.57300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>14108.402996</v>
+        <v>14108.402996000001</v>
       </c>
       <c r="V21" s="1">
-        <v>3.919001</v>
+        <v>3.9190010000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.050000</v>
+        <v>1206.05</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.584000</v>
+        <v>-107.584</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>14118.866069</v>
@@ -5439,255 +5855,255 @@
         <v>3.921907</v>
       </c>
       <c r="AB21" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.431800</v>
+        <v>-90.431799999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>14129.325438</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.924813</v>
+        <v>3.9248129999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1217.830000</v>
+        <v>1217.83</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.769100</v>
+        <v>-85.769099999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>14139.403418</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.927612</v>
+        <v>3.9276119999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1224.880000</v>
+        <v>1224.8800000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.098500</v>
+        <v>-89.098500000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>14150.312923</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.930642</v>
+        <v>3.9306420000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1232.790000</v>
+        <v>1232.79</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.971000</v>
+        <v>-100.971</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>14161.392093</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.933720</v>
+        <v>3.9337200000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.187000</v>
+        <v>-120.187</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>14172.717214</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.936866</v>
+        <v>3.9368660000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1251.040000</v>
+        <v>1251.04</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.595000</v>
+        <v>-137.595</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>14183.449680</v>
+        <v>14183.44968</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.939847</v>
+        <v>3.9398469999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1290.710000</v>
+        <v>1290.71</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.258000</v>
+        <v>-219.25800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>14194.554577</v>
+        <v>14194.554577000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.942932</v>
+        <v>3.9429319999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.506000</v>
+        <v>-355.50599999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>14205.008756</v>
+        <v>14205.008755999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.945836</v>
+        <v>3.9458359999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1472.290000</v>
+        <v>1472.29</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.190000</v>
+        <v>-578.19000000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>14215.961940</v>
+        <v>14215.961939999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.948878</v>
+        <v>3.9488780000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1602.410000</v>
+        <v>1602.41</v>
       </c>
       <c r="BV21" s="1">
-        <v>-830.736000</v>
+        <v>-830.73599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>14226.579767</v>
+        <v>14226.579766999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.951828</v>
+        <v>3.9518279999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1753.490000</v>
+        <v>1753.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1105.650000</v>
+        <v>-1105.6500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>14239.435079</v>
+        <v>14239.435079000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.955399</v>
+        <v>3.9553989999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2172.150000</v>
+        <v>2172.15</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1774.020000</v>
+        <v>-1774.02</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>14067.090683</v>
       </c>
       <c r="B22" s="1">
-        <v>3.907525</v>
+        <v>3.9075250000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1142.510000</v>
+        <v>1142.51</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.660000</v>
+        <v>-258.66000000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>14077.269611</v>
       </c>
       <c r="G22" s="1">
-        <v>3.910353</v>
+        <v>3.9103530000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1164.210000</v>
+        <v>1164.21</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.939000</v>
+        <v>-217.93899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>14087.763934</v>
+        <v>14087.763934000001</v>
       </c>
       <c r="L22" s="1">
         <v>3.913268</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.350000</v>
+        <v>1191.3499999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.762000</v>
+        <v>-150.762</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>14098.263254</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.916184</v>
+        <v>3.9161839999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.780000</v>
+        <v>1198.78</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.550000</v>
+        <v>-128.55000000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>14108.747683</v>
       </c>
       <c r="V22" s="1">
-        <v>3.919097</v>
+        <v>3.9190969999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.589000</v>
+        <v>-107.589</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>14119.218228</v>
@@ -5696,133 +6112,133 @@
         <v>3.922005</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.510000</v>
+        <v>1213.51</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.461200</v>
+        <v>-90.461200000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>14129.665494</v>
+        <v>14129.665494000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.924907</v>
+        <v>3.9249070000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.803600</v>
+        <v>-85.803600000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>14140.098809</v>
+        <v>14140.098808999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.927805</v>
+        <v>3.9278050000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.109600</v>
+        <v>-89.1096</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>14151.035626</v>
+        <v>14151.035626000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.930843</v>
+        <v>3.9308429999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1232.770000</v>
+        <v>1232.77</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.949000</v>
+        <v>-100.949</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>14161.781421</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.933828</v>
+        <v>3.9338280000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.216000</v>
+        <v>-120.21599999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>14173.075865</v>
+        <v>14173.075865000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>3.936966</v>
       </c>
       <c r="BA22" s="1">
-        <v>1251.020000</v>
+        <v>1251.02</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.618000</v>
+        <v>-137.61799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>14183.809775</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.939947</v>
+        <v>3.9399470000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1290.740000</v>
+        <v>1290.74</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.246000</v>
+        <v>-219.24600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>14195.238560</v>
+        <v>14195.23856</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.943122</v>
+        <v>3.9431219999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.515000</v>
+        <v>-355.51499999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>14205.523618</v>
+        <v>14205.523617999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.945979</v>
+        <v>3.9459789999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.138000</v>
+        <v>-578.13800000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>14216.073509</v>
@@ -5831,60 +6247,60 @@
         <v>3.948909</v>
       </c>
       <c r="BU22" s="1">
-        <v>1602.240000</v>
+        <v>1602.24</v>
       </c>
       <c r="BV22" s="1">
-        <v>-830.575000</v>
+        <v>-830.57500000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>14227.005830</v>
+        <v>14227.00583</v>
       </c>
       <c r="BY22" s="1">
         <v>3.951946</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1753.610000</v>
+        <v>1753.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1105.610000</v>
+        <v>-1105.6099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>14239.950423</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.955542</v>
+        <v>3.9555419999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2170.090000</v>
+        <v>2170.09</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1774.520000</v>
+        <v>-1774.52</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>14067.511785</v>
+        <v>14067.511785000001</v>
       </c>
       <c r="B23" s="1">
-        <v>3.907642</v>
+        <v>3.9076420000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1142.380000</v>
+        <v>1142.3800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.995000</v>
+        <v>-258.995</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>14077.539932</v>
@@ -5893,163 +6309,163 @@
         <v>3.910428</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.850000</v>
+        <v>1163.8499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.199000</v>
+        <v>-217.19900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>14088.039710</v>
+        <v>14088.039709999999</v>
       </c>
       <c r="L23" s="1">
-        <v>3.913344</v>
+        <v>3.9133439999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.080000</v>
+        <v>1191.08</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.711000</v>
+        <v>-150.71100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>14098.613456</v>
+        <v>14098.613455999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.916282</v>
+        <v>3.9162819999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.820000</v>
+        <v>1198.82</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.460000</v>
+        <v>-128.46</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>14109.092437</v>
+        <v>14109.092436999999</v>
       </c>
       <c r="V23" s="1">
-        <v>3.919192</v>
+        <v>3.9191919999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.543000</v>
+        <v>-107.54300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>14119.567412</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.922102</v>
+        <v>3.9221020000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.294100</v>
+        <v>-90.2941</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>14130.358659</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.925100</v>
+        <v>3.9251</v>
       </c>
       <c r="AG23" s="1">
-        <v>1217.900000</v>
+        <v>1217.9000000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.764100</v>
+        <v>-85.764099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>14140.449481</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.927903</v>
+        <v>3.9279030000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.085400</v>
+        <v>-89.085400000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>14151.395727</v>
+        <v>14151.395726999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.930943</v>
+        <v>3.9309430000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1232.760000</v>
+        <v>1232.76</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.966000</v>
+        <v>-100.96599999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>14162.146972</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.933930</v>
+        <v>3.9339300000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.212000</v>
+        <v>-120.212</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>14173.746947</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.937152</v>
+        <v>3.9371520000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1251.050000</v>
+        <v>1251.05</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.599000</v>
+        <v>-137.59899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>14184.488768</v>
+        <v>14184.488767999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.940136</v>
+        <v>3.9401359999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1290.690000</v>
+        <v>1290.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.254000</v>
+        <v>-219.25399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>14195.348673</v>
@@ -6058,58 +6474,58 @@
         <v>3.943152</v>
       </c>
       <c r="BK23" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.537000</v>
+        <v>-355.53699999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>14205.934290</v>
+        <v>14205.934289999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.946093</v>
+        <v>3.9460929999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.165000</v>
+        <v>-578.16499999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>14216.508500</v>
+        <v>14216.5085</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.949030</v>
+        <v>3.94903</v>
       </c>
       <c r="BU23" s="1">
-        <v>1602.260000</v>
+        <v>1602.26</v>
       </c>
       <c r="BV23" s="1">
-        <v>-830.552000</v>
+        <v>-830.55200000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>14227.424454</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.952062</v>
+        <v>3.9520620000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1753.650000</v>
+        <v>1753.65</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1105.710000</v>
+        <v>-1105.71</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>14240.470229</v>
@@ -6118,30 +6534,30 @@
         <v>3.955686</v>
       </c>
       <c r="CE23" s="1">
-        <v>2170.080000</v>
+        <v>2170.08</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1774.000000</v>
+        <v>-1774</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>14067.787561</v>
+        <v>14067.787560999999</v>
       </c>
       <c r="B24" s="1">
-        <v>3.907719</v>
+        <v>3.9077190000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1142.470000</v>
+        <v>1142.47</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.994000</v>
+        <v>-258.99400000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>14077.882668</v>
@@ -6150,617 +6566,617 @@
         <v>3.910523</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.480000</v>
+        <v>1163.48</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.762000</v>
+        <v>-217.762</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>14088.387407</v>
       </c>
       <c r="L24" s="1">
-        <v>3.913441</v>
+        <v>3.9134410000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.340000</v>
+        <v>1191.3399999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.951000</v>
+        <v>-150.95099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>14098.960143</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.916378</v>
+        <v>3.9163779999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.507000</v>
+        <v>-128.50700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>14109.778369</v>
       </c>
       <c r="V24" s="1">
-        <v>3.919383</v>
+        <v>3.9193829999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1205.970000</v>
+        <v>1205.97</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.504000</v>
+        <v>-107.504</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>14120.265285</v>
+        <v>14120.265284999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.922296</v>
+        <v>3.9222959999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.330700</v>
+        <v>-90.330699999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>14130.702134</v>
+        <v>14130.702133999999</v>
       </c>
       <c r="AF24" s="1">
         <v>3.925195</v>
       </c>
       <c r="AG24" s="1">
-        <v>1217.910000</v>
+        <v>1217.9100000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.783900</v>
+        <v>-85.783900000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>14140.800685</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.928000</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1224.880000</v>
+        <v>1224.8800000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.095100</v>
+        <v>-89.095100000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>14151.756779</v>
+        <v>14151.756778999999</v>
       </c>
       <c r="AP24" s="1">
         <v>3.931044</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1232.760000</v>
+        <v>1232.76</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.953000</v>
+        <v>-100.953</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>14162.826987</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.934119</v>
+        <v>3.9341189999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.227000</v>
+        <v>-120.227</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>14174.149660</v>
+        <v>14174.149659999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.937264</v>
+        <v>3.9372639999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1251.060000</v>
+        <v>1251.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.575000</v>
+        <v>-137.57499999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>14184.920475</v>
+        <v>14184.920475000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.940256</v>
+        <v>3.9402560000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1290.670000</v>
+        <v>1290.67</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.238000</v>
+        <v>-219.238</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>14195.705823</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.943252</v>
+        <v>3.9432520000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.521000</v>
+        <v>-355.52100000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>14206.330594</v>
+        <v>14206.330593999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.946203</v>
+        <v>3.9462030000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.202000</v>
+        <v>-578.202</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>14216.937077</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.949149</v>
+        <v>3.9491489999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1602.300000</v>
+        <v>1602.3</v>
       </c>
       <c r="BV24" s="1">
-        <v>-830.441000</v>
+        <v>-830.44100000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>14227.870853</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.952186</v>
+        <v>3.9521860000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1753.730000</v>
+        <v>1753.73</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1105.620000</v>
+        <v>-1105.6199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>14241.022304</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.955840</v>
+        <v>3.9558399999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2172.110000</v>
+        <v>2172.11</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1773.780000</v>
+        <v>-1773.78</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>14068.128841</v>
       </c>
       <c r="B25" s="1">
-        <v>3.907814</v>
+        <v>3.9078140000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1142.310000</v>
+        <v>1142.31</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.914000</v>
+        <v>-258.91399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>14078.230828</v>
       </c>
       <c r="G25" s="1">
-        <v>3.910620</v>
+        <v>3.9106200000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.670000</v>
+        <v>1163.67</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.844000</v>
+        <v>-216.84399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>14089.080812</v>
       </c>
       <c r="L25" s="1">
-        <v>3.913634</v>
+        <v>3.9136340000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1191.170000</v>
+        <v>1191.17</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.414000</v>
+        <v>-150.41399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>14099.659487</v>
+        <v>14099.659487000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.916572</v>
+        <v>3.9165719999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.506000</v>
+        <v>-128.506</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>14110.118129</v>
       </c>
       <c r="V25" s="1">
-        <v>3.919477</v>
+        <v>3.9194770000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.500000</v>
+        <v>-107.5</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>14120.612483</v>
+        <v>14120.612483000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.922392</v>
+        <v>3.9223919999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.350000</v>
+        <v>1213.3499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.370200</v>
+        <v>-90.370199999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>14131.043350</v>
+        <v>14131.04335</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.925290</v>
+        <v>3.9252899999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.772700</v>
+        <v>-85.7727</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>14141.469256</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.928186</v>
+        <v>3.9281860000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1224.880000</v>
+        <v>1224.8800000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.096800</v>
+        <v>-89.096800000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>14152.429385</v>
+        <v>14152.429384999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.931230</v>
+        <v>3.9312299999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1232.730000</v>
+        <v>1232.73</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.992000</v>
+        <v>-100.992</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>14163.272252</v>
+        <v>14163.272252000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.934242</v>
+        <v>3.9342419999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.660000</v>
+        <v>1242.6600000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.235000</v>
+        <v>-120.235</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>14174.538556</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.937372</v>
+        <v>3.9373719999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1251.010000</v>
+        <v>1251.01</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.605000</v>
+        <v>-137.60499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>14185.282397</v>
+        <v>14185.282397000001</v>
       </c>
       <c r="BE25" s="1">
         <v>3.940356</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.680000</v>
+        <v>1290.68</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.255000</v>
+        <v>-219.255</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>14196.081759</v>
+        <v>14196.081759000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.943356</v>
+        <v>3.9433560000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.502000</v>
+        <v>-355.50200000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>14206.756198</v>
+        <v>14206.756197999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.946321</v>
+        <v>3.9463210000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.212000</v>
+        <v>-578.21199999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>14217.359635</v>
+        <v>14217.359635000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.949267</v>
+        <v>3.9492669999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1602.320000</v>
+        <v>1602.32</v>
       </c>
       <c r="BV25" s="1">
-        <v>-830.268000</v>
+        <v>-830.26800000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>14228.289478</v>
+        <v>14228.289478000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.952303</v>
+        <v>3.9523030000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1753.680000</v>
+        <v>1753.68</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1105.610000</v>
+        <v>-1105.6099999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>14241.550021</v>
+        <v>14241.550020999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.955986</v>
+        <v>3.9559859999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2169.970000</v>
+        <v>2169.9699999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1774.550000</v>
+        <v>-1774.55</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>14068.473032</v>
       </c>
       <c r="B26" s="1">
-        <v>3.907909</v>
+        <v>3.9079090000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1142.570000</v>
+        <v>1142.57</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.601000</v>
+        <v>-258.601</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>14078.922249</v>
+        <v>14078.922248999999</v>
       </c>
       <c r="G26" s="1">
         <v>3.910812</v>
       </c>
       <c r="H26" s="1">
-        <v>1163.960000</v>
+        <v>1163.96</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.079000</v>
+        <v>-216.07900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>14089.423548</v>
+        <v>14089.423548000001</v>
       </c>
       <c r="L26" s="1">
         <v>3.913729</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.300000</v>
+        <v>1191.3</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.468000</v>
+        <v>-150.46799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>14100.007183</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.916669</v>
+        <v>3.9166690000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.820000</v>
+        <v>1198.82</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.568000</v>
+        <v>-128.56800000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>14110.466853</v>
       </c>
       <c r="V26" s="1">
-        <v>3.919574</v>
+        <v>3.9195739999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.508000</v>
+        <v>-107.508</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>14121.272162</v>
+        <v>14121.272161999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.922576</v>
+        <v>3.9225759999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1213.440000</v>
+        <v>1213.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.333800</v>
+        <v>-90.333799999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>14131.691812</v>
+        <v>14131.691811999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.925470</v>
+        <v>3.9254699999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.030000</v>
+        <v>1218.03</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.864900</v>
+        <v>-85.864900000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>14141.849224</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.928291</v>
+        <v>3.9282910000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1224.930000</v>
+        <v>1224.93</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.109500</v>
+        <v>-89.109499999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>14152.865871</v>
@@ -6769,13 +7185,13 @@
         <v>3.931352</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1232.750000</v>
+        <v>1232.75</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.964000</v>
+        <v>-100.964</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>14163.640459</v>
@@ -6784,120 +7200,121 @@
         <v>3.934345</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.215000</v>
+        <v>-120.215</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>14174.897658</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.937472</v>
+        <v>3.9374720000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1251.010000</v>
+        <v>1251.01</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.616000</v>
+        <v>-137.61600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>14185.644445</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.940457</v>
+        <v>3.9404569999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1290.660000</v>
+        <v>1290.6600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.242000</v>
+        <v>-219.24199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>14196.502701</v>
+        <v>14196.502700999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>3.943473</v>
       </c>
       <c r="BK26" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.505000</v>
+        <v>-355.505</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>14207.146545</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.946430</v>
+        <v>3.9464299999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.106000</v>
+        <v>-578.10599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>14217.780242</v>
+        <v>14217.780242000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.949383</v>
+        <v>3.9493830000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1602.350000</v>
+        <v>1602.35</v>
       </c>
       <c r="BV26" s="1">
-        <v>-830.159000</v>
+        <v>-830.15899999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>14228.717524</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.952422</v>
+        <v>3.9524219999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1753.640000</v>
+        <v>1753.64</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1105.640000</v>
+        <v>-1105.6400000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>14242.067378</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.956130</v>
+        <v>3.9561299999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2171.060000</v>
+        <v>2171.06</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1776.080000</v>
+        <v>-1776.08</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>